--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H2">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I2">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J2">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>34.6122232970569</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N2">
-        <v>34.6122232970569</v>
+        <v>0.020815</v>
       </c>
       <c r="O2">
-        <v>0.2993657652104456</v>
+        <v>5.581492475642685E-05</v>
       </c>
       <c r="P2">
-        <v>0.2993657652104456</v>
+        <v>5.581973125729165E-05</v>
       </c>
       <c r="Q2">
-        <v>51.3318773745482</v>
+        <v>0.0102953591875</v>
       </c>
       <c r="R2">
-        <v>51.3318773745482</v>
+        <v>0.061772155125</v>
       </c>
       <c r="S2">
-        <v>0.01053649725757639</v>
+        <v>1.929471276557106E-06</v>
       </c>
       <c r="T2">
-        <v>0.01053649725757639</v>
+        <v>1.314364014020726E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48305634497952</v>
+        <v>1.4838375</v>
       </c>
       <c r="H3">
-        <v>1.48305634497952</v>
+        <v>2.967675</v>
       </c>
       <c r="I3">
-        <v>0.0351960660904881</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J3">
-        <v>0.0351960660904881</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.00628529468371</v>
+        <v>42.91890666666666</v>
       </c>
       <c r="N3">
-        <v>81.00628529468371</v>
+        <v>128.75672</v>
       </c>
       <c r="O3">
-        <v>0.7006342347895544</v>
+        <v>0.3452580657547115</v>
       </c>
       <c r="P3">
-        <v>0.7006342347895544</v>
+        <v>0.3452877976445039</v>
       </c>
       <c r="Q3">
-        <v>120.1368853895019</v>
+        <v>63.684683171</v>
       </c>
       <c r="R3">
-        <v>120.1368853895019</v>
+        <v>382.108099026</v>
       </c>
       <c r="S3">
-        <v>0.02465956883291172</v>
+        <v>0.01193525788631784</v>
       </c>
       <c r="T3">
-        <v>0.02465956883291172</v>
+        <v>0.008130348274385909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.79599918485837</v>
+        <v>1.4838375</v>
       </c>
       <c r="H4">
-        <v>2.79599918485837</v>
+        <v>2.967675</v>
       </c>
       <c r="I4">
-        <v>0.06635497864417619</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J4">
-        <v>0.06635497864417619</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.6122232970569</v>
+        <v>81.01935833333333</v>
       </c>
       <c r="N4">
-        <v>34.6122232970569</v>
+        <v>243.058075</v>
       </c>
       <c r="O4">
-        <v>0.2993657652104456</v>
+        <v>0.6517544159292314</v>
       </c>
       <c r="P4">
-        <v>0.2993657652104456</v>
+        <v>0.6518105417446378</v>
       </c>
       <c r="Q4">
-        <v>96.77574812470698</v>
+        <v>120.2195621209375</v>
       </c>
       <c r="R4">
-        <v>96.77574812470698</v>
+        <v>721.317372725625</v>
       </c>
       <c r="S4">
-        <v>0.01986440895733658</v>
+        <v>0.0225305584553333</v>
       </c>
       <c r="T4">
-        <v>0.01986440895733658</v>
+        <v>0.01534791194317322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.79599918485837</v>
+        <v>1.4838375</v>
       </c>
       <c r="H5">
-        <v>2.79599918485837</v>
+        <v>2.967675</v>
       </c>
       <c r="I5">
-        <v>0.06635497864417619</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J5">
-        <v>0.06635497864417619</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>81.00628529468371</v>
+        <v>0.332327</v>
       </c>
       <c r="N5">
-        <v>81.00628529468371</v>
+        <v>0.996981</v>
       </c>
       <c r="O5">
-        <v>0.7006342347895544</v>
+        <v>0.002673380710957828</v>
       </c>
       <c r="P5">
-        <v>0.7006342347895544</v>
+        <v>0.002673610929071625</v>
       </c>
       <c r="Q5">
-        <v>226.4935076523402</v>
+        <v>0.4931192648625</v>
       </c>
       <c r="R5">
-        <v>226.4935076523402</v>
+        <v>2.958715589175</v>
       </c>
       <c r="S5">
-        <v>0.04649056968683962</v>
+        <v>9.241634411593466E-05</v>
       </c>
       <c r="T5">
-        <v>0.04649056968683962</v>
+        <v>6.295440543177503E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.492997818269</v>
+        <v>1.4838375</v>
       </c>
       <c r="H6">
-        <v>18.492997818269</v>
+        <v>2.967675</v>
       </c>
       <c r="I6">
-        <v>0.4388779803454037</v>
+        <v>0.03456909213758164</v>
       </c>
       <c r="J6">
-        <v>0.4388779803454037</v>
+        <v>0.0235465844140737</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>34.6122232970569</v>
+        <v>0.032112</v>
       </c>
       <c r="N6">
-        <v>34.6122232970569</v>
+        <v>0.064224</v>
       </c>
       <c r="O6">
-        <v>0.2993657652104456</v>
+        <v>0.0002583226803427882</v>
       </c>
       <c r="P6">
-        <v>0.2993657652104456</v>
+        <v>0.0001722299505293442</v>
       </c>
       <c r="Q6">
-        <v>640.0837699179127</v>
+        <v>0.0476489898</v>
       </c>
       <c r="R6">
-        <v>640.0837699179127</v>
+        <v>0.1905959592</v>
       </c>
       <c r="S6">
-        <v>0.1313850424201167</v>
+        <v>8.929980537996896E-06</v>
       </c>
       <c r="T6">
-        <v>0.1313850424201167</v>
+        <v>4.055427068770939E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.492997818269</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H7">
-        <v>18.492997818269</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I7">
-        <v>0.4388779803454037</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J7">
-        <v>0.4388779803454037</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>81.00628529468371</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N7">
-        <v>81.00628529468371</v>
+        <v>0.020815</v>
       </c>
       <c r="O7">
-        <v>0.7006342347895544</v>
+        <v>5.581492475642685E-05</v>
       </c>
       <c r="P7">
-        <v>0.7006342347895544</v>
+        <v>5.581973125729165E-05</v>
       </c>
       <c r="Q7">
-        <v>1498.049057220662</v>
+        <v>0.02146875520722222</v>
       </c>
       <c r="R7">
-        <v>1498.049057220662</v>
+        <v>0.193218796865</v>
       </c>
       <c r="S7">
-        <v>0.307492937925287</v>
+        <v>4.023496971923505E-06</v>
       </c>
       <c r="T7">
-        <v>0.307492937925287</v>
+        <v>4.111234793700047E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.0552542773413</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H8">
-        <v>17.0552542773413</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I8">
-        <v>0.4047572830037511</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J8">
-        <v>0.4047572830037511</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.6122232970569</v>
+        <v>42.91890666666666</v>
       </c>
       <c r="N8">
-        <v>34.6122232970569</v>
+        <v>128.75672</v>
       </c>
       <c r="O8">
-        <v>0.2993657652104456</v>
+        <v>0.3452580657547115</v>
       </c>
       <c r="P8">
-        <v>0.2993657652104456</v>
+        <v>0.3452877976445039</v>
       </c>
       <c r="Q8">
-        <v>590.3202694354219</v>
+        <v>132.8006967554578</v>
       </c>
       <c r="R8">
-        <v>590.3202694354219</v>
+        <v>1195.20627079912</v>
       </c>
       <c r="S8">
-        <v>0.1211704737509188</v>
+        <v>0.02488841090726892</v>
       </c>
       <c r="T8">
-        <v>0.1211704737509188</v>
+        <v>0.02543113654512106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.0552542773413</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H9">
-        <v>17.0552542773413</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I9">
-        <v>0.4047572830037511</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J9">
-        <v>0.4047572830037511</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>81.00628529468371</v>
+        <v>81.01935833333333</v>
       </c>
       <c r="N9">
-        <v>81.00628529468371</v>
+        <v>243.058075</v>
       </c>
       <c r="O9">
-        <v>0.7006342347895544</v>
+        <v>0.6517544159292314</v>
       </c>
       <c r="P9">
-        <v>0.7006342347895544</v>
+        <v>0.6518105417446378</v>
       </c>
       <c r="Q9">
-        <v>1381.582793763684</v>
+        <v>250.6920160131472</v>
       </c>
       <c r="R9">
-        <v>1381.582793763684</v>
+        <v>2256.228144118325</v>
       </c>
       <c r="S9">
-        <v>0.2835868092528323</v>
+        <v>0.04698262929445381</v>
       </c>
       <c r="T9">
-        <v>0.2835868092528323</v>
+        <v>0.04800714940330317</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.06819889108717</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H10">
-        <v>1.06819889108717</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I10">
-        <v>0.02535062062595425</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J10">
-        <v>0.02535062062595425</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>34.6122232970569</v>
+        <v>0.332327</v>
       </c>
       <c r="N10">
-        <v>34.6122232970569</v>
+        <v>0.996981</v>
       </c>
       <c r="O10">
-        <v>0.2993657652104456</v>
+        <v>0.002673380710957828</v>
       </c>
       <c r="P10">
-        <v>0.2993657652104456</v>
+        <v>0.002673610929071625</v>
       </c>
       <c r="Q10">
-        <v>36.97273854397769</v>
+        <v>1.028294068472333</v>
       </c>
       <c r="R10">
-        <v>36.97273854397769</v>
+        <v>9.254646616251001</v>
       </c>
       <c r="S10">
-        <v>0.007589107942248497</v>
+        <v>0.0001927143903226167</v>
       </c>
       <c r="T10">
-        <v>0.007589107942248497</v>
+        <v>0.0001969167896160397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.06819889108717</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H11">
-        <v>1.06819889108717</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I11">
-        <v>0.02535062062595425</v>
+        <v>0.07208639964098879</v>
       </c>
       <c r="J11">
-        <v>0.02535062062595425</v>
+        <v>0.07365199905298725</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>81.00628529468371</v>
+        <v>0.032112</v>
       </c>
       <c r="N11">
-        <v>81.00628529468371</v>
+        <v>0.064224</v>
       </c>
       <c r="O11">
-        <v>0.7006342347895544</v>
+        <v>0.0002583226803427882</v>
       </c>
       <c r="P11">
-        <v>0.7006342347895544</v>
+        <v>0.0001722299505293442</v>
       </c>
       <c r="Q11">
-        <v>86.53082412287206</v>
+        <v>0.099361710384</v>
       </c>
       <c r="R11">
-        <v>86.53082412287206</v>
+        <v>0.5961702623040001</v>
       </c>
       <c r="S11">
-        <v>0.01776151268370575</v>
+        <v>1.862155197152163E-05</v>
       </c>
       <c r="T11">
-        <v>0.01776151268370575</v>
+        <v>1.26850801532833E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.24148519062371</v>
+        <v>18.74820166666666</v>
       </c>
       <c r="H12">
-        <v>1.24148519062371</v>
+        <v>56.24460499999999</v>
       </c>
       <c r="I12">
-        <v>0.02946307129022649</v>
+        <v>0.4367784955084109</v>
       </c>
       <c r="J12">
-        <v>0.02946307129022649</v>
+        <v>0.4462646143761468</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>34.6122232970569</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N12">
-        <v>34.6122232970569</v>
+        <v>0.020815</v>
       </c>
       <c r="O12">
-        <v>0.2993657652104456</v>
+        <v>5.581492475642685E-05</v>
       </c>
       <c r="P12">
-        <v>0.2993657652104456</v>
+        <v>5.581973125729165E-05</v>
       </c>
       <c r="Q12">
-        <v>42.97056263785711</v>
+        <v>0.1300812725638889</v>
       </c>
       <c r="R12">
-        <v>42.97056263785711</v>
+        <v>1.170731453075</v>
       </c>
       <c r="S12">
-        <v>0.008820234882248562</v>
+        <v>2.437875886202727E-05</v>
       </c>
       <c r="T12">
-        <v>0.008820234882248562</v>
+        <v>2.49103708441154E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.74820166666666</v>
+      </c>
+      <c r="H13">
+        <v>56.24460499999999</v>
+      </c>
+      <c r="I13">
+        <v>0.4367784955084109</v>
+      </c>
+      <c r="J13">
+        <v>0.4462646143761468</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>42.91890666666666</v>
+      </c>
+      <c r="N13">
+        <v>128.75672</v>
+      </c>
+      <c r="O13">
+        <v>0.3452580657547115</v>
+      </c>
+      <c r="P13">
+        <v>0.3452877976445039</v>
+      </c>
+      <c r="Q13">
+        <v>804.6523174995109</v>
+      </c>
+      <c r="R13">
+        <v>7241.870857495599</v>
+      </c>
+      <c r="S13">
+        <v>0.1508012985224869</v>
+      </c>
+      <c r="T13">
+        <v>0.1540897258646135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>18.74820166666666</v>
+      </c>
+      <c r="H14">
+        <v>56.24460499999999</v>
+      </c>
+      <c r="I14">
+        <v>0.4367784955084109</v>
+      </c>
+      <c r="J14">
+        <v>0.4462646143761468</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>81.01935833333333</v>
+      </c>
+      <c r="N14">
+        <v>243.058075</v>
+      </c>
+      <c r="O14">
+        <v>0.6517544159292314</v>
+      </c>
+      <c r="P14">
+        <v>0.6518105417446378</v>
+      </c>
+      <c r="Q14">
+        <v>1518.967268937263</v>
+      </c>
+      <c r="R14">
+        <v>13670.70542043537</v>
+      </c>
+      <c r="S14">
+        <v>0.2846723132305328</v>
+      </c>
+      <c r="T14">
+        <v>0.2908799800579781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>18.74820166666666</v>
+      </c>
+      <c r="H15">
+        <v>56.24460499999999</v>
+      </c>
+      <c r="I15">
+        <v>0.4367784955084109</v>
+      </c>
+      <c r="J15">
+        <v>0.4462646143761468</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.332327</v>
+      </c>
+      <c r="N15">
+        <v>0.996981</v>
+      </c>
+      <c r="O15">
+        <v>0.002673380710957828</v>
+      </c>
+      <c r="P15">
+        <v>0.002673610929071625</v>
+      </c>
+      <c r="Q15">
+        <v>6.230533615278332</v>
+      </c>
+      <c r="R15">
+        <v>56.07480253750499</v>
+      </c>
+      <c r="S15">
+        <v>0.001167675204853366</v>
+      </c>
+      <c r="T15">
+        <v>0.001193137950254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.74820166666666</v>
+      </c>
+      <c r="H16">
+        <v>56.24460499999999</v>
+      </c>
+      <c r="I16">
+        <v>0.4367784955084109</v>
+      </c>
+      <c r="J16">
+        <v>0.4462646143761468</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.032112</v>
+      </c>
+      <c r="N16">
+        <v>0.064224</v>
+      </c>
+      <c r="O16">
+        <v>0.0002583226803427882</v>
+      </c>
+      <c r="P16">
+        <v>0.0001722299505293442</v>
+      </c>
+      <c r="Q16">
+        <v>0.6020422519199999</v>
+      </c>
+      <c r="R16">
+        <v>3.61225351152</v>
+      </c>
+      <c r="S16">
+        <v>0.0001128297916758232</v>
+      </c>
+      <c r="T16">
+        <v>7.68601324570006E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.24148519062371</v>
-      </c>
-      <c r="H13">
-        <v>1.24148519062371</v>
-      </c>
-      <c r="I13">
-        <v>0.02946307129022649</v>
-      </c>
-      <c r="J13">
-        <v>0.02946307129022649</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>81.00628529468371</v>
-      </c>
-      <c r="N13">
-        <v>81.00628529468371</v>
-      </c>
-      <c r="O13">
-        <v>0.7006342347895544</v>
-      </c>
-      <c r="P13">
-        <v>0.7006342347895544</v>
-      </c>
-      <c r="Q13">
-        <v>100.568103540789</v>
-      </c>
-      <c r="R13">
-        <v>100.568103540789</v>
-      </c>
-      <c r="S13">
-        <v>0.02064283640797792</v>
-      </c>
-      <c r="T13">
-        <v>0.02064283640797792</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.26277166666667</v>
+      </c>
+      <c r="H17">
+        <v>51.788315</v>
+      </c>
+      <c r="I17">
+        <v>0.4021723027589165</v>
+      </c>
+      <c r="J17">
+        <v>0.4109068313781459</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006938333333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.020815</v>
+      </c>
+      <c r="O17">
+        <v>5.581492475642685E-05</v>
+      </c>
+      <c r="P17">
+        <v>5.581973125729165E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.1197748640805556</v>
+      </c>
+      <c r="R17">
+        <v>1.077973776725</v>
+      </c>
+      <c r="S17">
+        <v>2.244721681760784E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.293670889931336E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.26277166666667</v>
+      </c>
+      <c r="H18">
+        <v>51.788315</v>
+      </c>
+      <c r="I18">
+        <v>0.4021723027589165</v>
+      </c>
+      <c r="J18">
+        <v>0.4109068313781459</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>42.91890666666666</v>
+      </c>
+      <c r="N18">
+        <v>128.75672</v>
+      </c>
+      <c r="O18">
+        <v>0.3452580657547115</v>
+      </c>
+      <c r="P18">
+        <v>0.3452877976445039</v>
+      </c>
+      <c r="Q18">
+        <v>740.8992859696443</v>
+      </c>
+      <c r="R18">
+        <v>6668.0935737268</v>
+      </c>
+      <c r="S18">
+        <v>0.1388532313506617</v>
+      </c>
+      <c r="T18">
+        <v>0.1418811148436415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.26277166666667</v>
+      </c>
+      <c r="H19">
+        <v>51.788315</v>
+      </c>
+      <c r="I19">
+        <v>0.4021723027589165</v>
+      </c>
+      <c r="J19">
+        <v>0.4109068313781459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>81.01935833333333</v>
+      </c>
+      <c r="N19">
+        <v>243.058075</v>
+      </c>
+      <c r="O19">
+        <v>0.6517544159292314</v>
+      </c>
+      <c r="P19">
+        <v>0.6518105417446378</v>
+      </c>
+      <c r="Q19">
+        <v>1398.618683488181</v>
+      </c>
+      <c r="R19">
+        <v>12587.56815139363</v>
+      </c>
+      <c r="S19">
+        <v>0.2621175742875516</v>
+      </c>
+      <c r="T19">
+        <v>0.2678334043671618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.26277166666667</v>
+      </c>
+      <c r="H20">
+        <v>51.788315</v>
+      </c>
+      <c r="I20">
+        <v>0.4021723027589165</v>
+      </c>
+      <c r="J20">
+        <v>0.4109068313781459</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.332327</v>
+      </c>
+      <c r="N20">
+        <v>0.996981</v>
+      </c>
+      <c r="O20">
+        <v>0.002673380710957828</v>
+      </c>
+      <c r="P20">
+        <v>0.002673610929071625</v>
+      </c>
+      <c r="Q20">
+        <v>5.736885119668333</v>
+      </c>
+      <c r="R20">
+        <v>51.631966077015</v>
+      </c>
+      <c r="S20">
+        <v>0.001075159676677179</v>
+      </c>
+      <c r="T20">
+        <v>0.001098604995202802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.26277166666667</v>
+      </c>
+      <c r="H21">
+        <v>51.788315</v>
+      </c>
+      <c r="I21">
+        <v>0.4021723027589165</v>
+      </c>
+      <c r="J21">
+        <v>0.4109068313781459</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.032112</v>
+      </c>
+      <c r="N21">
+        <v>0.064224</v>
+      </c>
+      <c r="O21">
+        <v>0.0002583226803427882</v>
+      </c>
+      <c r="P21">
+        <v>0.0001722299505293442</v>
+      </c>
+      <c r="Q21">
+        <v>0.55434212376</v>
+      </c>
+      <c r="R21">
+        <v>3.32605274256</v>
+      </c>
+      <c r="S21">
+        <v>0.0001038902272083146</v>
+      </c>
+      <c r="T21">
+        <v>7.077046324042763E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.081365333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.244096</v>
+      </c>
+      <c r="I22">
+        <v>0.02519266283699306</v>
+      </c>
+      <c r="J22">
+        <v>0.02573980651902881</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.006938333333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.020815</v>
+      </c>
+      <c r="O22">
+        <v>5.581492475642685E-05</v>
+      </c>
+      <c r="P22">
+        <v>5.581973125729165E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.007502873137777778</v>
+      </c>
+      <c r="R22">
+        <v>0.06752585824</v>
+      </c>
+      <c r="S22">
+        <v>1.406126580660798E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.436789082506872E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.081365333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.244096</v>
+      </c>
+      <c r="I23">
+        <v>0.02519266283699306</v>
+      </c>
+      <c r="J23">
+        <v>0.02573980651902881</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>42.91890666666666</v>
+      </c>
+      <c r="N23">
+        <v>128.75672</v>
+      </c>
+      <c r="O23">
+        <v>0.3452580657547115</v>
+      </c>
+      <c r="P23">
+        <v>0.3452877976445039</v>
+      </c>
+      <c r="Q23">
+        <v>46.41101781390222</v>
+      </c>
+      <c r="R23">
+        <v>417.69916032512</v>
+      </c>
+      <c r="S23">
+        <v>0.008697970042310824</v>
+      </c>
+      <c r="T23">
+        <v>0.008887641104751102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.081365333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.244096</v>
+      </c>
+      <c r="I24">
+        <v>0.02519266283699306</v>
+      </c>
+      <c r="J24">
+        <v>0.02573980651902881</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>81.01935833333333</v>
+      </c>
+      <c r="N24">
+        <v>243.058075</v>
+      </c>
+      <c r="O24">
+        <v>0.6517544159292314</v>
+      </c>
+      <c r="P24">
+        <v>0.6518105417446378</v>
+      </c>
+      <c r="Q24">
+        <v>87.61152543057777</v>
+      </c>
+      <c r="R24">
+        <v>788.5037288752</v>
+      </c>
+      <c r="S24">
+        <v>0.01641942925302646</v>
+      </c>
+      <c r="T24">
+        <v>0.01677747723157033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.081365333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.244096</v>
+      </c>
+      <c r="I25">
+        <v>0.02519266283699306</v>
+      </c>
+      <c r="J25">
+        <v>0.02573980651902881</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.332327</v>
+      </c>
+      <c r="N25">
+        <v>0.996981</v>
+      </c>
+      <c r="O25">
+        <v>0.002673380710957828</v>
+      </c>
+      <c r="P25">
+        <v>0.002673610929071625</v>
+      </c>
+      <c r="Q25">
+        <v>0.3593668971306666</v>
+      </c>
+      <c r="R25">
+        <v>3.234302074176</v>
+      </c>
+      <c r="S25">
+        <v>6.734957888608135E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.881822802146449E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.081365333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.244096</v>
+      </c>
+      <c r="I26">
+        <v>0.02519266283699306</v>
+      </c>
+      <c r="J26">
+        <v>0.02573980651902881</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.032112</v>
+      </c>
+      <c r="N26">
+        <v>0.064224</v>
+      </c>
+      <c r="O26">
+        <v>0.0002583226803427882</v>
+      </c>
+      <c r="P26">
+        <v>0.0001722299505293442</v>
+      </c>
+      <c r="Q26">
+        <v>0.034724803584</v>
+      </c>
+      <c r="R26">
+        <v>0.208348821504</v>
+      </c>
+      <c r="S26">
+        <v>6.507836189024198E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.433165603407222E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2534205</v>
+      </c>
+      <c r="H27">
+        <v>2.506841</v>
+      </c>
+      <c r="I27">
+        <v>0.02920104711710928</v>
+      </c>
+      <c r="J27">
+        <v>0.01989016425961769</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.006938333333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.020815</v>
+      </c>
+      <c r="O27">
+        <v>5.581492475642685E-05</v>
+      </c>
+      <c r="P27">
+        <v>5.581973125729165E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.008696649235833335</v>
+      </c>
+      <c r="R27">
+        <v>0.052179895415</v>
+      </c>
+      <c r="S27">
+        <v>1.62985424765033E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.110263623635247E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.2534205</v>
+      </c>
+      <c r="H28">
+        <v>2.506841</v>
+      </c>
+      <c r="I28">
+        <v>0.02920104711710928</v>
+      </c>
+      <c r="J28">
+        <v>0.01989016425961769</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>42.91890666666666</v>
+      </c>
+      <c r="N28">
+        <v>128.75672</v>
+      </c>
+      <c r="O28">
+        <v>0.3452580657547115</v>
+      </c>
+      <c r="P28">
+        <v>0.3452877976445039</v>
+      </c>
+      <c r="Q28">
+        <v>53.79543745358666</v>
+      </c>
+      <c r="R28">
+        <v>322.77262472152</v>
+      </c>
+      <c r="S28">
+        <v>0.01008189704566535</v>
+      </c>
+      <c r="T28">
+        <v>0.006867831011990817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2534205</v>
+      </c>
+      <c r="H29">
+        <v>2.506841</v>
+      </c>
+      <c r="I29">
+        <v>0.02920104711710928</v>
+      </c>
+      <c r="J29">
+        <v>0.01989016425961769</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>81.01935833333333</v>
+      </c>
+      <c r="N29">
+        <v>243.058075</v>
+      </c>
+      <c r="O29">
+        <v>0.6517544159292314</v>
+      </c>
+      <c r="P29">
+        <v>0.6518105417446378</v>
+      </c>
+      <c r="Q29">
+        <v>101.5513246318458</v>
+      </c>
+      <c r="R29">
+        <v>609.307947791075</v>
+      </c>
+      <c r="S29">
+        <v>0.01903191140833353</v>
+      </c>
+      <c r="T29">
+        <v>0.01296461874145124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2534205</v>
+      </c>
+      <c r="H30">
+        <v>2.506841</v>
+      </c>
+      <c r="I30">
+        <v>0.02920104711710928</v>
+      </c>
+      <c r="J30">
+        <v>0.01989016425961769</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.332327</v>
+      </c>
+      <c r="N30">
+        <v>0.996981</v>
+      </c>
+      <c r="O30">
+        <v>0.002673380710957828</v>
+      </c>
+      <c r="P30">
+        <v>0.002673610929071625</v>
+      </c>
+      <c r="Q30">
+        <v>0.4165454745035</v>
+      </c>
+      <c r="R30">
+        <v>2.499272847021</v>
+      </c>
+      <c r="S30">
+        <v>7.806551610265065E-05</v>
+      </c>
+      <c r="T30">
+        <v>5.31785605455437E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2534205</v>
+      </c>
+      <c r="H31">
+        <v>2.506841</v>
+      </c>
+      <c r="I31">
+        <v>0.02920104711710928</v>
+      </c>
+      <c r="J31">
+        <v>0.01989016425961769</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.032112</v>
+      </c>
+      <c r="N31">
+        <v>0.064224</v>
+      </c>
+      <c r="O31">
+        <v>0.0002583226803427882</v>
+      </c>
+      <c r="P31">
+        <v>0.0001722299505293442</v>
+      </c>
+      <c r="Q31">
+        <v>0.040249839096</v>
+      </c>
+      <c r="R31">
+        <v>0.160999356384</v>
+      </c>
+      <c r="S31">
+        <v>7.54329276010772E-06</v>
+      </c>
+      <c r="T31">
+        <v>3.425682006454484E-06</v>
       </c>
     </row>
   </sheetData>
